--- a/xlsx/country_comparison/radical_redistr_extended_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_extended_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -64,11 +67,12 @@
     <t xml:space="preserve">Prefers sustainable future*</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could sign a petition and spread ideas*</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
   </si>
   <si>
     <t xml:space="preserve">More likely to vote for party if part of worldwide
@@ -451,13 +455,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.689410372707553</v>
+        <v>0.692894784662911</v>
       </c>
       <c r="C2" t="n">
         <v>0.709953011533533</v>
@@ -487,18 +494,21 @@
         <v>0.667587247975338</v>
       </c>
       <c r="L2" t="n">
+        <v>0.734266953673365</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.816793423425975</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.613070427247228</v>
+      <c r="N2" t="n">
+        <v>0.613078913946868</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.641005498821681</v>
+        <v>0.648431801604668</v>
       </c>
       <c r="C3" t="n">
         <v>0.654418197725284</v>
@@ -528,18 +538,21 @@
         <v>0.548789112211414</v>
       </c>
       <c r="L3" t="n">
+        <v>0.745575769472929</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.820236659115239</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.58704664783834</v>
+      <c r="N3" t="n">
+        <v>0.587193769163202</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.663122973686195</v>
+        <v>0.664778686805119</v>
       </c>
       <c r="C4" t="n">
         <v>0.680960854092527</v>
@@ -569,18 +582,21 @@
         <v>0.706011505764104</v>
       </c>
       <c r="L4" t="n">
+        <v>0.6876153744808</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.666711263875173</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.603018840065367</v>
+      <c r="N4" t="n">
+        <v>0.603123607121577</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.699666077391475</v>
+        <v>0.705793226381462</v>
       </c>
       <c r="C5" t="n">
         <v>0.7602300376023</v>
@@ -610,56 +626,60 @@
         <v>0.662118444560361</v>
       </c>
       <c r="L5" t="n">
+        <v>0.766211423943959</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.913818581387587</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.551372519779298</v>
+      <c r="N5" t="n">
+        <v>0.551400100416414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.45329111060846</v>
+        <v>0.611777124330845</v>
       </c>
       <c r="C6" t="n">
-        <v>0.501067615658363</v>
+        <v>0.672953736654804</v>
       </c>
       <c r="D6" t="n">
-        <v>0.500322160552274</v>
+        <v>0.668600432112831</v>
       </c>
       <c r="E6" t="n">
-        <v>0.498797541405147</v>
+        <v>0.673402016569035</v>
       </c>
       <c r="F6" t="n">
-        <v>0.51486434687697</v>
+        <v>0.737070007431593</v>
       </c>
       <c r="G6" t="n">
-        <v>0.480350199835189</v>
+        <v>0.655329158659857</v>
       </c>
       <c r="H6" t="n">
-        <v>0.548905702320423</v>
+        <v>0.724297246090431</v>
       </c>
       <c r="I6" t="n">
-        <v>0.509455748738933</v>
+        <v>0.645148556496296</v>
       </c>
       <c r="J6" t="n">
-        <v>0.456199715104608</v>
+        <v>0.602999620241999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.446983447126815</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.298037867404482</v>
-      </c>
+        <v>0.507428712494617</v>
+      </c>
+      <c r="L6"/>
       <c r="M6" t="n">
-        <v>0.447768510345408</v>
+        <v>0.55354536542297</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.612788981791228</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.664188137644821</v>
@@ -692,13 +712,14 @@
         <v>0.516295471481124</v>
       </c>
       <c r="L7"/>
-      <c r="M7" t="n">
-        <v>0.665169595809965</v>
+      <c r="M7"/>
+      <c r="N7" t="n">
+        <v>0.665109188819347</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.461188014718766</v>
@@ -725,16 +746,17 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8" t="n">
-        <v>0.395268274163522</v>
+      <c r="M8"/>
+      <c r="N8" t="n">
+        <v>0.395452459668441</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.626372285923396</v>
+        <v>0.622476446837147</v>
       </c>
       <c r="C9" t="n">
         <v>0.612353567625133</v>
@@ -764,10 +786,13 @@
         <v>0.602893816380884</v>
       </c>
       <c r="L9" t="n">
+        <v>0.579329513897711</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.882267286664075</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.563747698614997</v>
+      <c r="N9" t="n">
+        <v>0.563647359451843</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_extended_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_extended_share.xlsx
@@ -64,7 +64,7 @@
 (Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
   </si>
   <si>
-    <t xml:space="preserve">Prefers sustainable future*</t>
+    <t xml:space="preserve">Prefers sustainable future</t>
   </si>
   <si>
     <t xml:space="preserve">"Governments should actively cooperate to have all countries
@@ -558,37 +558,37 @@
         <v>0.680960854092527</v>
       </c>
       <c r="D4" t="n">
-        <v>0.703421739255081</v>
+        <v>0.701612903225806</v>
       </c>
       <c r="E4" t="n">
-        <v>0.68701219464814</v>
+        <v>0.683610867659947</v>
       </c>
       <c r="F4" t="n">
-        <v>0.72909694938135</v>
+        <v>0.728285077951002</v>
       </c>
       <c r="G4" t="n">
-        <v>0.569764105372422</v>
+        <v>0.568822553897181</v>
       </c>
       <c r="H4" t="n">
-        <v>0.726504855911</v>
+        <v>0.726299694189602</v>
       </c>
       <c r="I4" t="n">
-        <v>0.672412949788013</v>
+        <v>0.667752442996743</v>
       </c>
       <c r="J4" t="n">
-        <v>0.653357988317707</v>
+        <v>0.65607476635514</v>
       </c>
       <c r="K4" t="n">
-        <v>0.706011505764104</v>
+        <v>0.706269349845201</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6876153744808</v>
+        <v>0.685934489402698</v>
       </c>
       <c r="M4" t="n">
-        <v>0.666711263875173</v>
+        <v>0.668763102725367</v>
       </c>
       <c r="N4" t="n">
-        <v>0.603123607121577</v>
+        <v>0.602535832414553</v>
       </c>
     </row>
     <row r="5">
@@ -602,37 +602,37 @@
         <v>0.7602300376023</v>
       </c>
       <c r="D5" t="n">
-        <v>0.761541475459894</v>
+        <v>0.762917933130699</v>
       </c>
       <c r="E5" t="n">
-        <v>0.743564553236576</v>
+        <v>0.740149094781683</v>
       </c>
       <c r="F5" t="n">
-        <v>0.857432751616096</v>
+        <v>0.856145251396648</v>
       </c>
       <c r="G5" t="n">
-        <v>0.822929290165911</v>
+        <v>0.825301204819277</v>
       </c>
       <c r="H5" t="n">
-        <v>0.830607056522197</v>
+        <v>0.830601092896175</v>
       </c>
       <c r="I5" t="n">
-        <v>0.654101549734897</v>
+        <v>0.652413793103448</v>
       </c>
       <c r="J5" t="n">
-        <v>0.658578114966628</v>
+        <v>0.658256880733945</v>
       </c>
       <c r="K5" t="n">
-        <v>0.662118444560361</v>
+        <v>0.663065843621399</v>
       </c>
       <c r="L5" t="n">
-        <v>0.766211423943959</v>
+        <v>0.765895953757225</v>
       </c>
       <c r="M5" t="n">
-        <v>0.913818581387587</v>
+        <v>0.917480998914224</v>
       </c>
       <c r="N5" t="n">
-        <v>0.551400100416414</v>
+        <v>0.555436337625179</v>
       </c>
     </row>
     <row r="6">
@@ -646,35 +646,37 @@
         <v>0.672953736654804</v>
       </c>
       <c r="D6" t="n">
-        <v>0.668600432112831</v>
+        <v>0.668202764976959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.673402016569035</v>
+        <v>0.670464504820333</v>
       </c>
       <c r="F6" t="n">
-        <v>0.737070007431593</v>
+        <v>0.736080178173719</v>
       </c>
       <c r="G6" t="n">
-        <v>0.655329158659857</v>
+        <v>0.648424543946932</v>
       </c>
       <c r="H6" t="n">
-        <v>0.724297246090431</v>
+        <v>0.723241590214067</v>
       </c>
       <c r="I6" t="n">
-        <v>0.645148556496296</v>
+        <v>0.642779587404995</v>
       </c>
       <c r="J6" t="n">
-        <v>0.602999620241999</v>
+        <v>0.598130841121495</v>
       </c>
       <c r="K6" t="n">
-        <v>0.507428712494617</v>
-      </c>
-      <c r="L6"/>
+        <v>0.506191950464396</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.506191950464396</v>
+      </c>
       <c r="M6" t="n">
-        <v>0.55354536542297</v>
+        <v>0.560447239692523</v>
       </c>
       <c r="N6" t="n">
-        <v>0.612788981791228</v>
+        <v>0.612458654906284</v>
       </c>
     </row>
     <row r="7">
@@ -688,33 +690,33 @@
         <v>0.711714770797963</v>
       </c>
       <c r="D7" t="n">
-        <v>0.712150220340183</v>
+        <v>0.710578842315369</v>
       </c>
       <c r="E7" t="n">
-        <v>0.705530556985195</v>
+        <v>0.705192629815745</v>
       </c>
       <c r="F7" t="n">
         <v>0.801272507913065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.650611870785462</v>
+        <v>0.646090534979424</v>
       </c>
       <c r="H7" t="n">
-        <v>0.767989004695835</v>
+        <v>0.769662921348315</v>
       </c>
       <c r="I7" t="n">
-        <v>0.69617146918543</v>
+        <v>0.693877551020408</v>
       </c>
       <c r="J7" t="n">
-        <v>0.590824299113952</v>
+        <v>0.58695652173913</v>
       </c>
       <c r="K7" t="n">
-        <v>0.516295471481124</v>
+        <v>0.515331355093966</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>0.665109188819347</v>
+        <v>0.669950738916256</v>
       </c>
     </row>
     <row r="8">
@@ -728,27 +730,27 @@
         <v>0.502795031055901</v>
       </c>
       <c r="D8" t="n">
-        <v>0.435539017016514</v>
+        <v>0.436893203883495</v>
       </c>
       <c r="E8" t="n">
-        <v>0.442203957534266</v>
+        <v>0.442563482466747</v>
       </c>
       <c r="F8" t="n">
         <v>0.685958024097665</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>0.509855294288736</v>
+        <v>0.511201629327902</v>
       </c>
       <c r="I8" t="n">
-        <v>0.460310643096073</v>
+        <v>0.461068702290076</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>0.395452459668441</v>
+        <v>0.407318053880177</v>
       </c>
     </row>
     <row r="9">
@@ -762,37 +764,37 @@
         <v>0.612353567625133</v>
       </c>
       <c r="D9" t="n">
-        <v>0.441553711210941</v>
+        <v>0.441176470588235</v>
       </c>
       <c r="E9" t="n">
-        <v>0.635106971413203</v>
+        <v>0.62962962962963</v>
       </c>
       <c r="F9" t="n">
         <v>0.771253333873262</v>
       </c>
       <c r="G9" t="n">
-        <v>0.64628872186081</v>
+        <v>0.641833810888252</v>
       </c>
       <c r="H9" t="n">
-        <v>0.712614832313001</v>
+        <v>0.712018140589569</v>
       </c>
       <c r="I9" t="n">
-        <v>0.583075218570314</v>
+        <v>0.584084084084084</v>
       </c>
       <c r="J9" t="n">
-        <v>0.530245324009883</v>
+        <v>0.532786885245902</v>
       </c>
       <c r="K9" t="n">
-        <v>0.602893816380884</v>
+        <v>0.601431980906921</v>
       </c>
       <c r="L9" t="n">
-        <v>0.579329513897711</v>
+        <v>0.577994428969359</v>
       </c>
       <c r="M9" t="n">
         <v>0.882267286664075</v>
       </c>
       <c r="N9" t="n">
-        <v>0.563647359451843</v>
+        <v>0.571005917159763</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_extended_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_extended_share.xlsx
@@ -56,11 +56,11 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
+    <t xml:space="preserve">Accepts tax on world top 1% to finance global poverty reduction
 (Additional 15% tax on income over [$120k/year in PPP])</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
+    <t xml:space="preserve">Accepts tax on world top 3% to finance global poverty reduction
 (Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
   </si>
   <si>
@@ -79,7 +79,7 @@
 coalition for climate action and global redistribution</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports reparations for colonization and slavery in
+    <t xml:space="preserve">Accepts reparations for colonization and slavery in
 the form of funding education and technology transfers</t>
   </si>
   <si>
